--- a/AAII_Financials/Quarterly/GRWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRWC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>GRWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,123 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -782,28 +789,34 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -820,34 +833,40 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -856,28 +875,34 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,38 +1045,44 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1069,22 +1114,28 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
-        <v>400</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,69 +1324,81 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>-1500</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-29200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1327,81 +1406,93 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,35 +1750,41 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
+        <v>500</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1821,57 +1960,69 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,31 +2225,33 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2090,19 +2263,25 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,23 +2342,23 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2186,17 +2371,23 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,35 +2433,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2289,34 +2486,40 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>600</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2325,19 +2528,25 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,69 +2592,81 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
-        <v>100</v>
-      </c>
       <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>1700</v>
       </c>
       <c r="K48" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="M48" s="3">
         <v>1800</v>
       </c>
       <c r="N48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
@@ -2456,11 +2677,11 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,37 +2804,43 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
-        <v>1700</v>
-      </c>
       <c r="F52" s="3">
+        <v>800</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
@@ -2610,16 +2849,22 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,34 +2910,40 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2300</v>
       </c>
       <c r="I54" s="3">
         <v>2100</v>
       </c>
       <c r="J54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2200</v>
       </c>
       <c r="L54" s="3">
         <v>2100</v>
@@ -2701,19 +2952,25 @@
         <v>2200</v>
       </c>
       <c r="N54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,14 +3020,14 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2808,8 +3075,8 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2818,139 +3085,157 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>900</v>
       </c>
       <c r="L58" s="3">
+        <v>900</v>
+      </c>
+      <c r="M58" s="3">
+        <v>900</v>
+      </c>
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
-        <v>600</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="M59" s="3">
+        <v>900</v>
+      </c>
+      <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
-        <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
-        <v>900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>900</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
       </c>
       <c r="I60" s="3">
+        <v>700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1800</v>
       </c>
       <c r="L60" s="3">
         <v>1900</v>
       </c>
       <c r="M60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O60" s="3">
         <v>2100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1600</v>
       </c>
       <c r="P60" s="3">
         <v>1500</v>
       </c>
       <c r="Q60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
@@ -2968,72 +3253,84 @@
         <v>600</v>
       </c>
       <c r="L61" s="3">
+        <v>600</v>
+      </c>
+      <c r="M61" s="3">
+        <v>600</v>
+      </c>
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>900</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1400</v>
       </c>
       <c r="H66" s="3">
         <v>1400</v>
       </c>
       <c r="I66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-48000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-47700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-46200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-45800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-45600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-45300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-45100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-44900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-43600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-42900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,31 +3980,37 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
@@ -3648,7 +4019,7 @@
         <v>-500</v>
       </c>
       <c r="M76" s="3">
-        <v>-900</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
@@ -3657,13 +4028,19 @@
         <v>-900</v>
       </c>
       <c r="P76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,34 +4245,40 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,31 +4614,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4211,19 +4652,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,32 +4769,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4352,19 +4811,25 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>300</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>GRWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -775,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -784,7 +788,7 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,22 +811,22 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -839,8 +846,8 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
@@ -848,28 +855,31 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -881,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -890,10 +900,10 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,8 +1071,8 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1060,17 +1080,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1078,11 +1098,14 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1099,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1120,11 +1143,11 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1132,10 +1155,13 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
-        <v>2200</v>
-      </c>
       <c r="H17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1330,27 +1364,30 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>-1400</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
@@ -1359,34 +1396,37 @@
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-29200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,12 +1436,12 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1412,25 +1452,25 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,22 +1814,25 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>500</v>
       </c>
       <c r="G29" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1783,11 +1844,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1966,63 +2036,69 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
         <v>-600</v>
       </c>
       <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
         <v>-600</v>
       </c>
       <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,16 +2323,16 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2254,7 +2341,7 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2269,19 +2356,22 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>700</v>
@@ -2348,20 +2441,20 @@
         <v>700</v>
       </c>
       <c r="G43" s="3">
+        <v>700</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2377,17 +2470,20 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,37 +2535,40 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
-        <v>1400</v>
-      </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2492,38 +2591,41 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
-        <v>2100</v>
-      </c>
       <c r="H46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2534,19 +2636,22 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,52 +2715,55 @@
         <v>1100</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1700</v>
       </c>
       <c r="J48" s="3">
         <v>1700</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1600</v>
       </c>
       <c r="R48" s="3">
         <v>1600</v>
       </c>
       <c r="S48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2668,8 +2779,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2683,8 +2794,8 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,52 +2939,55 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
       </c>
       <c r="G52" s="3">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
-        <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2100</v>
       </c>
       <c r="L54" s="3">
         <v>2100</v>
       </c>
       <c r="M54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,16 +3151,16 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3064,22 +3195,25 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3091,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>900</v>
@@ -3100,95 +3234,101 @@
         <v>900</v>
       </c>
       <c r="N58" s="3">
+        <v>900</v>
+      </c>
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
         <v>1900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>900</v>
       </c>
       <c r="M59" s="3">
         <v>900</v>
       </c>
       <c r="N59" s="3">
+        <v>900</v>
+      </c>
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
       </c>
       <c r="F60" s="3">
+        <v>800</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
@@ -3197,34 +3337,37 @@
         <v>700</v>
       </c>
       <c r="K60" s="3">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="L60" s="3">
         <v>1900</v>
       </c>
       <c r="M60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,13 +3375,13 @@
         <v>600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
@@ -3259,25 +3402,28 @@
         <v>600</v>
       </c>
       <c r="N61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O61" s="3">
         <v>700</v>
       </c>
       <c r="P61" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>900</v>
       </c>
       <c r="R61" s="3">
         <v>900</v>
       </c>
       <c r="S61" s="3">
+        <v>900</v>
+      </c>
+      <c r="T61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,16 +3431,16 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
       </c>
       <c r="G62" s="3">
+        <v>900</v>
+      </c>
+      <c r="H62" s="3">
         <v>600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3303,10 +3449,10 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3315,11 +3461,11 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,25 +3643,28 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1800</v>
       </c>
       <c r="G66" s="3">
         <v>1800</v>
       </c>
       <c r="H66" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="I66" s="3">
         <v>1400</v>
@@ -3515,34 +3673,37 @@
         <v>1400</v>
       </c>
       <c r="K66" s="3">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="L66" s="3">
         <v>2600</v>
       </c>
       <c r="M66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2500</v>
       </c>
       <c r="R66" s="3">
         <v>2500</v>
       </c>
       <c r="S66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-46200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-43600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-42900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>800</v>
       </c>
       <c r="I76" s="3">
         <v>800</v>
       </c>
       <c r="J76" s="3">
+        <v>800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
         <v>-600</v>
       </c>
       <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4242,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4251,11 +4450,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4263,11 +4462,11 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4275,10 +4474,13 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,16 +4756,19 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-500</v>
@@ -4563,40 +4780,43 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4630,20 +4851,20 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4658,19 +4879,22 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,26 +5014,26 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4817,19 +5047,22 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,52 +5316,55 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>600</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>400</v>
       </c>
       <c r="R100" s="3">
         <v>400</v>
       </c>
       <c r="S100" s="3">
+        <v>400</v>
+      </c>
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,35 +5416,38 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-400</v>
       </c>
       <c r="G102" s="3">
-        <v>500</v>
+        <v>-400</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5209,15 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>GRWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,143 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
-        <v>500</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -802,38 +809,44 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>600</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
@@ -849,44 +862,50 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -894,28 +913,34 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,38 +1113,44 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1122,14 +1167,14 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1146,22 +1191,28 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1100</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1367,66 +1434,78 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
-        <v>-1500</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-29200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1455,90 +1534,102 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,29 +1932,35 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -1847,14 +1968,14 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2039,66 +2178,78 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,40 +2485,42 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2359,19 +2532,25 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,32 +2620,32 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>700</v>
       </c>
       <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2473,17 +2658,23 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,44 +2729,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2594,43 +2791,49 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>600</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2639,19 +2842,25 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2915,76 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>1700</v>
       </c>
       <c r="N48" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="P48" s="3">
         <v>1800</v>
       </c>
       <c r="Q48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2782,11 +3003,11 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
@@ -2797,11 +3018,11 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2942,34 +3181,34 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -2978,16 +3217,22 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,43 +3287,49 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2300</v>
       </c>
       <c r="L54" s="3">
         <v>2100</v>
       </c>
       <c r="M54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N54" s="3">
         <v>2100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2200</v>
       </c>
       <c r="O54" s="3">
         <v>2100</v>
@@ -3087,19 +3338,25 @@
         <v>2200</v>
       </c>
       <c r="Q54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3401,21 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3163,10 +3424,10 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3198,29 +3459,35 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3228,166 +3495,184 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>900</v>
       </c>
       <c r="O58" s="3">
+        <v>900</v>
+      </c>
+      <c r="P58" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>700</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
       </c>
       <c r="L60" s="3">
+        <v>700</v>
+      </c>
+      <c r="M60" s="3">
+        <v>700</v>
+      </c>
+      <c r="N60" s="3">
         <v>1900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1800</v>
       </c>
       <c r="O60" s="3">
         <v>1900</v>
       </c>
       <c r="P60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R60" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1600</v>
       </c>
       <c r="S60" s="3">
         <v>1500</v>
       </c>
       <c r="T60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
@@ -3405,81 +3690,93 @@
         <v>600</v>
       </c>
       <c r="O61" s="3">
+        <v>600</v>
+      </c>
+      <c r="P61" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1400</v>
       </c>
       <c r="K66" s="3">
         <v>1400</v>
       </c>
       <c r="L66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-50100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-49000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-48400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-48000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-47700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-46200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-45800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-45600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-45300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-45100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-44900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-43600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-42900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,40 +4537,46 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-9200</v>
       </c>
       <c r="E76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
@@ -4214,7 +4585,7 @@
         <v>-500</v>
       </c>
       <c r="P76" s="3">
-        <v>-900</v>
+        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-500</v>
@@ -4223,13 +4594,19 @@
         <v>-900</v>
       </c>
       <c r="S76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4441,46 +4838,52 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4854,23 +5295,23 @@
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4882,19 +5323,25 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,32 +5473,32 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5050,19 +5509,25 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,41 +5916,47 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5464,15 +5967,21 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>GRWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,133 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E8" s="3">
         <v>8900</v>
       </c>
-      <c r="E8" s="3">
-        <v>4700</v>
-      </c>
       <c r="F8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
-        <v>1400</v>
-      </c>
       <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -795,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -804,7 +808,7 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -815,40 +819,43 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -868,8 +875,8 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>5</v>
@@ -877,37 +884,40 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
-        <v>1000</v>
-      </c>
       <c r="F10" s="3">
+        <v>900</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>800</v>
-      </c>
       <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -919,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -928,10 +938,10 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>5</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,31 +1104,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1119,8 +1139,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1128,17 +1148,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
@@ -1146,16 +1166,19 @@
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1173,11 +1196,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1197,11 +1220,11 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1209,10 +1232,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
-        <v>2500</v>
-      </c>
       <c r="I17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
-        <v>-900</v>
-      </c>
       <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1100</v>
-      </c>
       <c r="I18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1440,10 +1474,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,25 +1488,25 @@
         <v>-700</v>
       </c>
       <c r="E21" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="F21" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="G21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
@@ -1478,46 +1515,49 @@
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-29200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1540,25 +1580,25 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,61 +1618,64 @@
         <v>-800</v>
       </c>
       <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,123 +1813,129 @@
         <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1950,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>500</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1974,11 +2035,11 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2184,72 +2254,78 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>-1100</v>
       </c>
       <c r="G33" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="H33" s="3">
         <v>-600</v>
       </c>
       <c r="I33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>-1100</v>
       </c>
       <c r="G35" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="H35" s="3">
         <v>-600</v>
       </c>
       <c r="I35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,34 +2573,35 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2523,7 +2610,7 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2538,19 +2625,22 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,22 +2701,25 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>700</v>
       </c>
       <c r="H43" s="3">
         <v>700</v>
@@ -2635,20 +2728,20 @@
         <v>700</v>
       </c>
       <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2664,17 +2757,20 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,46 +2831,49 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2797,47 +2896,50 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
-        <v>800</v>
-      </c>
       <c r="G46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2848,19 +2950,22 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1700</v>
       </c>
       <c r="M48" s="3">
         <v>1700</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1600</v>
       </c>
       <c r="U48" s="3">
         <v>1600</v>
       </c>
       <c r="V48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3009,8 +3120,8 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
@@ -3024,8 +3135,8 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3187,52 +3307,55 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
       </c>
       <c r="J52" s="3">
+        <v>800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2100</v>
       </c>
       <c r="O54" s="3">
         <v>2100</v>
       </c>
       <c r="P54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,22 +3533,23 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3430,7 +3561,7 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3465,31 +3596,34 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3501,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>900</v>
@@ -3510,113 +3644,119 @@
         <v>900</v>
       </c>
       <c r="Q58" s="3">
+        <v>900</v>
+      </c>
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
       </c>
       <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
-        <v>500</v>
-      </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>1900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>900</v>
       </c>
       <c r="P59" s="3">
         <v>900</v>
       </c>
       <c r="Q59" s="3">
+        <v>900</v>
+      </c>
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
-        <v>1000</v>
-      </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>700</v>
       </c>
       <c r="L60" s="3">
         <v>700</v>
@@ -3625,57 +3765,60 @@
         <v>700</v>
       </c>
       <c r="N60" s="3">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="O60" s="3">
         <v>1900</v>
       </c>
       <c r="P60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
-        <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
@@ -3696,25 +3839,28 @@
         <v>600</v>
       </c>
       <c r="Q61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R61" s="3">
         <v>700</v>
       </c>
       <c r="S61" s="3">
+        <v>700</v>
+      </c>
+      <c r="T61" s="3">
         <v>1500</v>
-      </c>
-      <c r="T61" s="3">
-        <v>900</v>
       </c>
       <c r="U61" s="3">
         <v>900</v>
       </c>
       <c r="V61" s="3">
+        <v>900</v>
+      </c>
+      <c r="W61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,25 +3868,25 @@
         <v>5300</v>
       </c>
       <c r="E62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F62" s="3">
         <v>5400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>900</v>
       </c>
       <c r="J62" s="3">
+        <v>900</v>
+      </c>
+      <c r="K62" s="3">
         <v>600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3749,10 +3895,10 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3761,11 +3907,11 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,34 +4116,37 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E66" s="3">
         <v>13500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1800</v>
       </c>
       <c r="J66" s="3">
         <v>1800</v>
       </c>
       <c r="K66" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L66" s="3">
         <v>1400</v>
@@ -3997,34 +4155,37 @@
         <v>1400</v>
       </c>
       <c r="N66" s="3">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="O66" s="3">
         <v>2600</v>
       </c>
       <c r="P66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2500</v>
       </c>
       <c r="U66" s="3">
         <v>2500</v>
       </c>
       <c r="V66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51100</v>
+        <v>-60700</v>
       </c>
       <c r="E72" s="3">
-        <v>-51200</v>
+        <v>-59900</v>
       </c>
       <c r="F72" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-50100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-45600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-43600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-42900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-9200</v>
+        <v>-9600</v>
       </c>
       <c r="E76" s="3">
         <v>-9200</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-9200</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>800</v>
       </c>
       <c r="L76" s="3">
         <v>800</v>
       </c>
       <c r="M76" s="3">
+        <v>800</v>
+      </c>
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>-1100</v>
       </c>
       <c r="G81" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="H81" s="3">
         <v>-600</v>
       </c>
       <c r="I81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4844,11 +5043,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4856,11 +5055,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4868,11 +5067,11 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -4880,10 +5079,13 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5301,20 +5522,20 @@
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5329,19 +5550,22 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,44 +5691,47 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5515,19 +5745,22 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>400</v>
       </c>
       <c r="U100" s="3">
         <v>400</v>
       </c>
       <c r="V100" s="3">
+        <v>400</v>
+      </c>
+      <c r="W100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,44 +6171,47 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-400</v>
       </c>
       <c r="J102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5973,15 +6225,18 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
